--- a/data/pca/factorExposure/factorExposure_2013-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005445190975889353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001773179761137543</v>
+      </c>
+      <c r="C2">
+        <v>0.03362658731625888</v>
+      </c>
+      <c r="D2">
+        <v>0.005780166427658663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.00102859069621098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005964888374646682</v>
+      </c>
+      <c r="C4">
+        <v>0.08466617185272551</v>
+      </c>
+      <c r="D4">
+        <v>0.07881629385381345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>9.590879442236263e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01316989203677794</v>
+      </c>
+      <c r="C6">
+        <v>0.1076277967348992</v>
+      </c>
+      <c r="D6">
+        <v>0.03491888264256469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001815387170427223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004772139210389158</v>
+      </c>
+      <c r="C7">
+        <v>0.0539989967640306</v>
+      </c>
+      <c r="D7">
+        <v>0.03516126999221031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006803875139777275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005572481144986754</v>
+      </c>
+      <c r="C8">
+        <v>0.03693099795320915</v>
+      </c>
+      <c r="D8">
+        <v>0.03872236422767208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003978029452744402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003981577743564444</v>
+      </c>
+      <c r="C9">
+        <v>0.07008609906856056</v>
+      </c>
+      <c r="D9">
+        <v>0.07161958609493779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004930942061065201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005652118547449677</v>
+      </c>
+      <c r="C10">
+        <v>0.0732308263966357</v>
+      </c>
+      <c r="D10">
+        <v>-0.2137179584632335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002763610034553509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005211622775221989</v>
+      </c>
+      <c r="C11">
+        <v>0.07828612261435693</v>
+      </c>
+      <c r="D11">
+        <v>0.0652325746484404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000235065160143133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004032787309560209</v>
+      </c>
+      <c r="C12">
+        <v>0.06418556586580151</v>
+      </c>
+      <c r="D12">
+        <v>0.04727974712114075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003224714087315347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008599154824974491</v>
+      </c>
+      <c r="C13">
+        <v>0.06976186882578474</v>
+      </c>
+      <c r="D13">
+        <v>0.06379392148371837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001091052621894978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001487353290703114</v>
+      </c>
+      <c r="C14">
+        <v>0.04594061961888552</v>
+      </c>
+      <c r="D14">
+        <v>0.01452082778149514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001234332578063789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005818817355245661</v>
+      </c>
+      <c r="C15">
+        <v>0.03926056787929473</v>
+      </c>
+      <c r="D15">
+        <v>0.03368438211546335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001355008924049151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004882550553761964</v>
+      </c>
+      <c r="C16">
+        <v>0.06484278476564698</v>
+      </c>
+      <c r="D16">
+        <v>0.05004443653752048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004325817851593437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008885391222049998</v>
+      </c>
+      <c r="C20">
+        <v>0.06477233840434936</v>
+      </c>
+      <c r="D20">
+        <v>0.05583931791515864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006271233763359673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009807533218353379</v>
+      </c>
+      <c r="C21">
+        <v>0.02314392836076895</v>
+      </c>
+      <c r="D21">
+        <v>0.03538578937634604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01715488950212211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006873192369654494</v>
+      </c>
+      <c r="C22">
+        <v>0.09343803256882373</v>
+      </c>
+      <c r="D22">
+        <v>0.101463035676854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01748202435928116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006686753331905225</v>
+      </c>
+      <c r="C23">
+        <v>0.09429077156029929</v>
+      </c>
+      <c r="D23">
+        <v>0.1017993286952803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001927684613889365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004886576973809949</v>
+      </c>
+      <c r="C24">
+        <v>0.07330519541770153</v>
+      </c>
+      <c r="D24">
+        <v>0.06172337428199982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003917335529111162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00272134585618235</v>
+      </c>
+      <c r="C25">
+        <v>0.07740555987882677</v>
+      </c>
+      <c r="D25">
+        <v>0.06670046887201189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005777694288459064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003578900639254477</v>
+      </c>
+      <c r="C26">
+        <v>0.04069548198476194</v>
+      </c>
+      <c r="D26">
+        <v>0.02896293427649144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004346846784798467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000411375224243396</v>
+      </c>
+      <c r="C28">
+        <v>0.1223064583055885</v>
+      </c>
+      <c r="D28">
+        <v>-0.3106184734902216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001223021603834595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003184513613010941</v>
+      </c>
+      <c r="C29">
+        <v>0.04824651796584604</v>
+      </c>
+      <c r="D29">
+        <v>0.01438248290015747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004043061499473167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008562841989200412</v>
+      </c>
+      <c r="C30">
+        <v>0.1378421861734309</v>
+      </c>
+      <c r="D30">
+        <v>0.108126090817096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001474463560312498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006105083943581219</v>
+      </c>
+      <c r="C31">
+        <v>0.04603639721280112</v>
+      </c>
+      <c r="D31">
+        <v>0.03096773048316135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000102857903206642</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004021862231070075</v>
+      </c>
+      <c r="C32">
+        <v>0.04064449949989235</v>
+      </c>
+      <c r="D32">
+        <v>0.01781770822462732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003506327846386516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007791110521771646</v>
+      </c>
+      <c r="C33">
+        <v>0.08340279565838686</v>
+      </c>
+      <c r="D33">
+        <v>0.07548576472580373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00396011455918984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003821282956935056</v>
+      </c>
+      <c r="C34">
+        <v>0.0579833080260078</v>
+      </c>
+      <c r="D34">
+        <v>0.04732574878341839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002541375435698942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004735051262223271</v>
+      </c>
+      <c r="C35">
+        <v>0.03868934160993184</v>
+      </c>
+      <c r="D35">
+        <v>0.01410377667976461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004293787504887742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001384485246465346</v>
+      </c>
+      <c r="C36">
+        <v>0.02382938854798448</v>
+      </c>
+      <c r="D36">
+        <v>0.02296570480721905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001994585703369607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009222956770447481</v>
+      </c>
+      <c r="C38">
+        <v>0.03270949099418288</v>
+      </c>
+      <c r="D38">
+        <v>0.01969320796650334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01224168700714109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001009714974485621</v>
+      </c>
+      <c r="C39">
+        <v>0.1155089212389673</v>
+      </c>
+      <c r="D39">
+        <v>0.08513178491272984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00911786638016214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002115957587301478</v>
+      </c>
+      <c r="C40">
+        <v>0.08705159645665715</v>
+      </c>
+      <c r="D40">
+        <v>0.0209915666180153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001929488833718908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007359916306589121</v>
+      </c>
+      <c r="C41">
+        <v>0.03929942743476074</v>
+      </c>
+      <c r="D41">
+        <v>0.03458605492435351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003089840995678811</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003539565178007868</v>
+      </c>
+      <c r="C43">
+        <v>0.0506995173506728</v>
+      </c>
+      <c r="D43">
+        <v>0.02559523342351964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.001733984727758479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003407548833308858</v>
+      </c>
+      <c r="C44">
+        <v>0.1085336604923423</v>
+      </c>
+      <c r="D44">
+        <v>0.08517185288343508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001535803388202377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002263704671169439</v>
+      </c>
+      <c r="C46">
+        <v>0.03459593215791765</v>
+      </c>
+      <c r="D46">
+        <v>0.03097739671531288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001218827325965833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002611619215674265</v>
+      </c>
+      <c r="C47">
+        <v>0.0385821945760096</v>
+      </c>
+      <c r="D47">
+        <v>0.0232685705994439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003950149134080949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006346488636857659</v>
+      </c>
+      <c r="C48">
+        <v>0.0284618469234688</v>
+      </c>
+      <c r="D48">
+        <v>0.0332194119399684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.012275547475867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01426174882514168</v>
+      </c>
+      <c r="C49">
+        <v>0.1726680369804992</v>
+      </c>
+      <c r="D49">
+        <v>0.02784280388016624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.000879891506627076</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003584058273709946</v>
+      </c>
+      <c r="C50">
+        <v>0.04299968216119193</v>
+      </c>
+      <c r="D50">
+        <v>0.0355993498173745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001266852153821356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004256377861290669</v>
+      </c>
+      <c r="C51">
+        <v>0.02081594487916607</v>
+      </c>
+      <c r="D51">
+        <v>0.03275383315772049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001412099036492649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02006975390053243</v>
+      </c>
+      <c r="C53">
+        <v>0.1659929265041596</v>
+      </c>
+      <c r="D53">
+        <v>0.04733659076918151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001056184336641323</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008586186982267582</v>
+      </c>
+      <c r="C54">
+        <v>0.05536046677988609</v>
+      </c>
+      <c r="D54">
+        <v>0.04246104673375582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003519986459186594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009133115350711351</v>
+      </c>
+      <c r="C55">
+        <v>0.1062611520265857</v>
+      </c>
+      <c r="D55">
+        <v>0.0523812296860579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004305967074014837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01938334935303508</v>
+      </c>
+      <c r="C56">
+        <v>0.172559278623121</v>
+      </c>
+      <c r="D56">
+        <v>0.04521702219980772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008438828699632797</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01924954844800813</v>
+      </c>
+      <c r="C58">
+        <v>0.1036870154624143</v>
+      </c>
+      <c r="D58">
+        <v>0.06941893862951705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.005939946324643562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009529219397827918</v>
+      </c>
+      <c r="C59">
+        <v>0.1670896826806223</v>
+      </c>
+      <c r="D59">
+        <v>-0.2854914394565085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003981658722209749</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02324468601721342</v>
+      </c>
+      <c r="C60">
+        <v>0.2215826511735322</v>
+      </c>
+      <c r="D60">
+        <v>0.02891172559816056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01307458903652457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002070810901003554</v>
+      </c>
+      <c r="C61">
+        <v>0.09483305198881484</v>
+      </c>
+      <c r="D61">
+        <v>0.06240932883452712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1746900736803697</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1435785960277342</v>
+      </c>
+      <c r="C62">
+        <v>0.07972192112433606</v>
+      </c>
+      <c r="D62">
+        <v>0.05608061252815599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001187562302725432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006347517357620674</v>
+      </c>
+      <c r="C63">
+        <v>0.05977770492385131</v>
+      </c>
+      <c r="D63">
+        <v>0.02476172937363918</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006085638477360361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0147504498091809</v>
+      </c>
+      <c r="C64">
+        <v>0.1028059564644415</v>
+      </c>
+      <c r="D64">
+        <v>0.06440556922311494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001211483685249285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01699950773574</v>
+      </c>
+      <c r="C65">
+        <v>0.1151841595298972</v>
+      </c>
+      <c r="D65">
+        <v>0.02438989117316661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007270442656243265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01216153764474751</v>
+      </c>
+      <c r="C66">
+        <v>0.1544687913618446</v>
+      </c>
+      <c r="D66">
+        <v>0.1223761092827459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003626684678400682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01532248671790161</v>
+      </c>
+      <c r="C67">
+        <v>0.06282529216833253</v>
+      </c>
+      <c r="D67">
+        <v>0.03050684411857758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006954816333453292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001123879432766108</v>
+      </c>
+      <c r="C68">
+        <v>0.1032431939252327</v>
+      </c>
+      <c r="D68">
+        <v>-0.2593488722825575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002734553516168696</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005810066920759347</v>
+      </c>
+      <c r="C69">
+        <v>0.0483961716522289</v>
+      </c>
+      <c r="D69">
+        <v>0.04307578336318918</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001724505440649758</v>
+      </c>
+      <c r="C70">
+        <v>0.002162790283598389</v>
+      </c>
+      <c r="D70">
+        <v>0.00236969506353464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001947286651859859</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006149400243629165</v>
+      </c>
+      <c r="C71">
+        <v>0.1074516958336481</v>
+      </c>
+      <c r="D71">
+        <v>-0.285550966039755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00572556042520215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01539159955588892</v>
+      </c>
+      <c r="C72">
+        <v>0.1491072269964351</v>
+      </c>
+      <c r="D72">
+        <v>0.02065798225274344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.009800601415547203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02932359883450738</v>
+      </c>
+      <c r="C73">
+        <v>0.2812570318381458</v>
+      </c>
+      <c r="D73">
+        <v>0.04557872550652346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.003897523981981613</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001259383375953351</v>
+      </c>
+      <c r="C74">
+        <v>0.103943292857713</v>
+      </c>
+      <c r="D74">
+        <v>0.04448170413522694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003938211962321557</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01060668803727926</v>
+      </c>
+      <c r="C75">
+        <v>0.1322752017331997</v>
+      </c>
+      <c r="D75">
+        <v>0.02609571655258209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01143209411744019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02099627673220055</v>
+      </c>
+      <c r="C76">
+        <v>0.1476573400074958</v>
+      </c>
+      <c r="D76">
+        <v>0.07074635183135852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001297155021965991</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02411099616947588</v>
+      </c>
+      <c r="C77">
+        <v>0.135330582679696</v>
+      </c>
+      <c r="D77">
+        <v>0.06494760922039204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001900396126003805</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01413405074065551</v>
+      </c>
+      <c r="C78">
+        <v>0.09262113370007341</v>
+      </c>
+      <c r="D78">
+        <v>0.06729198993242468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02595446865943471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03669375773807611</v>
+      </c>
+      <c r="C79">
+        <v>0.1571995386894402</v>
+      </c>
+      <c r="D79">
+        <v>0.03177707489999206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004730393018309375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01028168416093982</v>
+      </c>
+      <c r="C80">
+        <v>0.04087500583036074</v>
+      </c>
+      <c r="D80">
+        <v>0.03313561168347576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004374449382427888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01437480524696387</v>
+      </c>
+      <c r="C81">
+        <v>0.1236399805331675</v>
+      </c>
+      <c r="D81">
+        <v>0.05645126509810208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005648719638306965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.019358804373286</v>
+      </c>
+      <c r="C82">
+        <v>0.1418371302597471</v>
+      </c>
+      <c r="D82">
+        <v>0.04574198353348346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008283403772635173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009898869175804932</v>
+      </c>
+      <c r="C83">
+        <v>0.05672349641753224</v>
+      </c>
+      <c r="D83">
+        <v>0.04807640947250486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01287790821748085</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01155831238022948</v>
+      </c>
+      <c r="C84">
+        <v>0.03203532517627979</v>
+      </c>
+      <c r="D84">
+        <v>-0.003015966841782846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01461162924485831</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02775832482588919</v>
+      </c>
+      <c r="C85">
+        <v>0.1284139959359235</v>
+      </c>
+      <c r="D85">
+        <v>0.04934474350981002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003659076139515409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005424197725124821</v>
+      </c>
+      <c r="C86">
+        <v>0.0505584941881686</v>
+      </c>
+      <c r="D86">
+        <v>0.02034979640128801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004904002586237583</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01008167588779008</v>
+      </c>
+      <c r="C87">
+        <v>0.129646814997632</v>
+      </c>
+      <c r="D87">
+        <v>0.07694474048552485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01426072305428501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002863929338652835</v>
+      </c>
+      <c r="C88">
+        <v>0.06893758495534047</v>
+      </c>
+      <c r="D88">
+        <v>0.01481072449985851</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01517863072984563</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009184577310846807</v>
+      </c>
+      <c r="C89">
+        <v>0.158009024250497</v>
+      </c>
+      <c r="D89">
+        <v>-0.3381269118381677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002354605431188036</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007450640483972719</v>
+      </c>
+      <c r="C90">
+        <v>0.1380867968296317</v>
+      </c>
+      <c r="D90">
+        <v>-0.3220287141438117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001376701031204407</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01009353063807843</v>
+      </c>
+      <c r="C91">
+        <v>0.1049479001257096</v>
+      </c>
+      <c r="D91">
+        <v>0.01994736918935488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008811503334480981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.00074902480837825</v>
+      </c>
+      <c r="C92">
+        <v>0.1471158521020088</v>
+      </c>
+      <c r="D92">
+        <v>-0.3299872003526492</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00158551384734323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005363415790803107</v>
+      </c>
+      <c r="C93">
+        <v>0.1215138883652705</v>
+      </c>
+      <c r="D93">
+        <v>-0.3145612450367433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004692546815602816</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0220093786702438</v>
+      </c>
+      <c r="C94">
+        <v>0.1555107600475637</v>
+      </c>
+      <c r="D94">
+        <v>0.03336442224401814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00466023886905328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01596061211369375</v>
+      </c>
+      <c r="C95">
+        <v>0.1241026603293233</v>
+      </c>
+      <c r="D95">
+        <v>0.06558929375910839</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001397535223629236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03439222765978129</v>
+      </c>
+      <c r="C97">
+        <v>0.1798576247458918</v>
+      </c>
+      <c r="D97">
+        <v>0.03949936866173474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003382987286224372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0362553246690091</v>
+      </c>
+      <c r="C98">
+        <v>0.2528963856268457</v>
+      </c>
+      <c r="D98">
+        <v>0.04737042665625214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9826655407245165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982802969005196</v>
+      </c>
+      <c r="C99">
+        <v>-0.1098827508444854</v>
+      </c>
+      <c r="D99">
+        <v>-0.03094668023529616</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001172060749060137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003227444889234563</v>
+      </c>
+      <c r="C101">
+        <v>0.04827113282889776</v>
+      </c>
+      <c r="D101">
+        <v>0.01479290931385508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
